--- a/Hardware/Beacon/BEACON_BOM_FOSSASAT With Hyperlinks.xlsx
+++ b/Hardware/Beacon/BEACON_BOM_FOSSASAT With Hyperlinks.xlsx
@@ -5,21 +5,21 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chris\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtengines.com\users\Redirection\cmulhall\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9372"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="105">
   <si>
     <t>ID</t>
   </si>
@@ -42,9 +42,6 @@
     <t>Manufacturer</t>
   </si>
   <si>
-    <t>Price</t>
-  </si>
-  <si>
     <t>Mounted</t>
   </si>
   <si>
@@ -201,99 +198,15 @@
     <t>https://www.mouser.co.uk/datasheet/2/256/MAX6369-MAX6374-962281.pdf</t>
   </si>
   <si>
-    <t>0603 Metric</t>
-  </si>
-  <si>
-    <t>100nF</t>
-  </si>
-  <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Murata-Electronics/GRM033R61C104KE14E?qs=sGAEpiMZZMs0AnBnWHyRQN7%2fAA2D2lPPABTSfbP91yoB9u7LR6kUoQ%3d%3d</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/datasheet/2/281/murata_03052018_GRM_Series_1-1310166.pdf</t>
-  </si>
-  <si>
     <t>MURATA</t>
   </si>
   <si>
     <t>FAIRCHILD/ON SEMI</t>
   </si>
   <si>
-    <t>GRM033R61C104KE14E</t>
-  </si>
-  <si>
-    <t>CM: X5R Dielectric which isn't great. 16V. 16wk Lead time :(</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Murata-Electronics/GRM035R60J475ME15D?qs=sGAEpiMZZMs0AnBnWHyRQO9VYadaKTO%252bNbImDO%252buF90OUKoJRXJuqQ%3d%3d</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CM: There are only 5 different 4.7uF 0603 caps on Mouser and none have a high enough voltage (derating by 50%). </t>
-  </si>
-  <si>
-    <t>1005 Metric</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Vishay/RCS040210K0FKED?qs=sGAEpiMZZMvdGkrng054t9clqp6gtJJdXBtFSxkAevBVVwivOSsTiw%3d%3d</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/datasheet/2/427/rcse3-1013761.pdf</t>
-  </si>
-  <si>
-    <t>CM: Gone up a size to find powe ratings above 50mW</t>
-  </si>
-  <si>
-    <t>10K 1% 200mW</t>
-  </si>
-  <si>
-    <t>RCS040210K0FKED</t>
-  </si>
-  <si>
-    <t>VISHAY</t>
-  </si>
-  <si>
-    <t>7K5</t>
-  </si>
-  <si>
-    <t>1K8 1% 200mW</t>
-  </si>
-  <si>
-    <t>CRCW04021K80FKEDHP</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Vishay-Draloric/CRCW04021K80FKEDHP?qs=YaA%252b3EhhSt081btEZyRrzA%3d%3d</t>
-  </si>
-  <si>
     <t>https://www.mouser.co.uk/datasheet/2/427/crcwhpe3-46056.pdf</t>
   </si>
   <si>
-    <t>30K 1% 200mW</t>
-  </si>
-  <si>
-    <t>CRCW040230K0FKEDHP</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Vishay-Draloric/CRCW040230K0FKEDHP?qs=40TFAHZMFve33UNSDV%2ffTw%3d%3d</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/ProductDetail/Panasonic-Industrial-Devices/ERJ-2RKF7501X?qs=sGAEpiMZZMvdGkrng054tx7%2f6%252bNA3LAJ5ynYmiw6Dz4%3d</t>
-  </si>
-  <si>
-    <t>https://www.mouser.co.uk/datasheet/2/315/AOA0000C304-1149620.pdf</t>
-  </si>
-  <si>
-    <t>PANASONIC</t>
-  </si>
-  <si>
-    <t>ERJ-2RKF7501X</t>
-  </si>
-  <si>
-    <t>CM: Only 100mW</t>
-  </si>
-  <si>
     <t>8MHz 0.5% XO</t>
   </si>
   <si>
@@ -328,6 +241,99 @@
   </si>
   <si>
     <t>825433-9</t>
+  </si>
+  <si>
+    <t>0603 Imperial</t>
+  </si>
+  <si>
+    <t>GCM188R91E104JA37D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Murata-Electronics/GCM188R91E104JA37D?qs=sGAEpiMZZMs0AnBnWHyRQKFZIQ7b73cd6k1bYMTTL%2fZdHGICS6QvOw%3d%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/281/murata_03122018_GCM_Series-1310150.pdf</t>
+  </si>
+  <si>
+    <t>100nF 5% 25V X8R</t>
+  </si>
+  <si>
+    <t>Unit Price</t>
+  </si>
+  <si>
+    <t>Line Price</t>
+  </si>
+  <si>
+    <t>GRT188C81E475ME13D</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Murata-Electronics/GRT188C81E475ME13D?qs=sGAEpiMZZMs0AnBnWHyRQKtaB%2fEehnE2sUBmSCK%2fSDLL8KasPti0Zw%3d%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/281/product-837149.pdf</t>
+  </si>
+  <si>
+    <t>CM: AEC Q200</t>
+  </si>
+  <si>
+    <t>AT0603FRE0710KL</t>
+  </si>
+  <si>
+    <t>YAGEO</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Yageo/AT0603FRE0710KL?qs=sGAEpiMZZMtlubZbdhIBINhe0vL5TjR%2fdQWpUTsvFcA%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/447/PYu-AT_51_RoHS_L_5-1222714.pdf</t>
+  </si>
+  <si>
+    <t>1K8 1% 330mW</t>
+  </si>
+  <si>
+    <t>SG73S1JTTD1801F</t>
+  </si>
+  <si>
+    <t>KOA Speer</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/KOA-Speer/SG73S1JTTD1801F?qs=sGAEpiMZZMtlubZbdhIBIMav4eZf%2fxzg%2fhTZy4PkZHk%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/datasheet/2/219/SG73S-1108995.pdf</t>
+  </si>
+  <si>
+    <t>30K 1% 250mW</t>
+  </si>
+  <si>
+    <t>CRCW060330K0FKEAHP</t>
+  </si>
+  <si>
+    <t>VISHAY DRALORIC</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Vishay-Draloric/CRCW060330K0FKEAHP?qs=sGAEpiMZZMtlubZbdhIBIKMpMWeJoXcVumJ3tO8NoxA%3d</t>
+  </si>
+  <si>
+    <t>https://www.mouser.co.uk/ProductDetail/Vishay-Draloric/CRCW06037K50FKEAHP?qs=sGAEpiMZZMu61qfTUdNhGwGvesw0sPGmxSVGG858aAM%3d</t>
+  </si>
+  <si>
+    <t>CRCW06037K50FKEAHP</t>
+  </si>
+  <si>
+    <t>4.7uF 20% 25V X6S</t>
+  </si>
+  <si>
+    <t>10K 1% 100mW</t>
+  </si>
+  <si>
+    <t>CM: Is 100mW suitable? AEC Q200</t>
+  </si>
+  <si>
+    <t>7K5 1% 250mW</t>
+  </si>
+  <si>
+    <t>CM: u.FL Antenna? Also, put a large ground pad under this device. Stitch it to the GND plane with LOTS of vias.</t>
   </si>
 </sst>
 </file>
@@ -335,7 +341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
+    <numFmt numFmtId="169" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -370,18 +376,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -397,17 +397,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" quotePrefix="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -692,30 +691,30 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L999"/>
+  <dimension ref="A1:M999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A15" sqref="A15"/>
+      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="3.44140625" customWidth="1"/>
-    <col min="2" max="2" width="21.33203125" customWidth="1"/>
-    <col min="3" max="3" width="11.77734375" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" customWidth="1"/>
-    <col min="5" max="5" width="8.21875" customWidth="1"/>
-    <col min="6" max="6" width="21.21875" customWidth="1"/>
-    <col min="7" max="7" width="15.33203125" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="9.33203125" customWidth="1"/>
-    <col min="10" max="10" width="7.6640625" customWidth="1"/>
-    <col min="11" max="11" width="10.44140625" customWidth="1"/>
-    <col min="12" max="25" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
+    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" customWidth="1"/>
+    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" customWidth="1"/>
+    <col min="8" max="9" width="7" customWidth="1"/>
+    <col min="10" max="10" width="9.28515625" customWidth="1"/>
+    <col min="11" max="11" width="7.7109375" customWidth="1"/>
+    <col min="12" max="12" width="10.42578125" customWidth="1"/>
+    <col min="13" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="14.25" customHeight="1">
+    <row r="1" spans="1:13" ht="14.25" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -738,504 +737,572 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>50</v>
-      </c>
       <c r="L1" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="14.25" customHeight="1">
+    <row r="2" spans="1:13" ht="14.25" customHeight="1">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" t="s">
-        <v>12</v>
       </c>
       <c r="E2">
         <v>2</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="I2" t="s">
-        <v>13</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" t="s">
+        <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L2" t="s">
         <v>48</v>
       </c>
+      <c r="L2" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" ht="14.25" customHeight="1">
+    <row r="3" spans="1:13" ht="14.25" customHeight="1">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>54</v>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" t="s">
+        <v>12</v>
       </c>
       <c r="K3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L3" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M3" t="s">
         <v>52</v>
       </c>
-      <c r="L3" t="s">
-        <v>53</v>
-      </c>
     </row>
-    <row r="4" spans="1:12" ht="14.25" customHeight="1">
+    <row r="4" spans="1:13" ht="14.25" customHeight="1">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>20</v>
-      </c>
-      <c r="D4" t="s">
-        <v>21</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I4" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="8"/>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="5" t="s">
+      <c r="M4" t="s">
         <v>56</v>
       </c>
-      <c r="L4" t="s">
-        <v>57</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" ht="14.25" customHeight="1">
+    <row r="5" spans="1:13" ht="14.25" customHeight="1">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G5" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" t="s">
-        <v>13</v>
-      </c>
-      <c r="J5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8"/>
+      <c r="I5" s="8"/>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="K5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" t="s">
-        <v>57</v>
+      <c r="M5" t="s">
+        <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="14.25" customHeight="1">
+    <row r="6" spans="1:13" ht="14.25" customHeight="1">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="G6" t="s">
-        <v>65</v>
-      </c>
-      <c r="I6" t="s">
-        <v>13</v>
-      </c>
-      <c r="J6" s="5" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="I6" s="8">
+        <f>E6*H6</f>
+        <v>1.89</v>
+      </c>
+      <c r="J6" t="s">
+        <v>12</v>
       </c>
       <c r="K6" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L6" t="s">
-        <v>68</v>
+        <v>76</v>
+      </c>
+      <c r="L6" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="14.25" customHeight="1">
+    <row r="7" spans="1:13" ht="14.25" customHeight="1">
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
-        <v>62</v>
+      <c r="B7" s="7" t="s">
+        <v>100</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
       <c r="G7" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" t="s">
-        <v>13</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
+      </c>
+      <c r="H7" s="8">
+        <v>0.36</v>
+      </c>
+      <c r="I7" s="8">
+        <f>E7*H7</f>
+        <v>0.36</v>
+      </c>
+      <c r="J7" t="s">
+        <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L7" s="6" t="s">
-        <v>70</v>
+        <v>82</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M7" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="14.25" customHeight="1">
+    <row r="8" spans="1:13" ht="14.25" customHeight="1">
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
-        <v>75</v>
+      <c r="B8" s="7" t="s">
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I8" t="s">
-        <v>13</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>72</v>
+        <v>86</v>
+      </c>
+      <c r="H8" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="I8" s="8">
+        <f>E8*H8</f>
+        <v>0.52</v>
+      </c>
+      <c r="J8" t="s">
+        <v>12</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="L8" t="s">
-        <v>74</v>
+        <v>87</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="14.25" customHeight="1">
+    <row r="9" spans="1:13" ht="14.25" customHeight="1">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="5" t="s">
-        <v>81</v>
+      <c r="F9" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="I9" s="8">
+        <f>E9*H9</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>12</v>
       </c>
       <c r="K9" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L9" t="s">
-        <v>74</v>
+        <v>92</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="M9" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="14.25" customHeight="1">
+    <row r="10" spans="1:13" ht="14.25" customHeight="1">
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="8" t="s">
-        <v>83</v>
+      <c r="B10" s="7" t="s">
+        <v>94</v>
       </c>
       <c r="C10" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H10" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I10" s="8">
+        <f>E10*H10</f>
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="J10" t="s">
+        <v>12</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M10" t="s">
         <v>84</v>
       </c>
-      <c r="G10" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="I10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L10" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="11" spans="1:12" ht="14.25" customHeight="1">
+    <row r="11" spans="1:13" ht="14.25" customHeight="1">
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
-        <v>78</v>
+      <c r="B11" s="7" t="s">
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>71</v>
+        <v>30</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="I11" t="s">
-        <v>13</v>
-      </c>
-      <c r="J11" s="5" t="s">
-        <v>86</v>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" s="8">
+        <v>0.17</v>
+      </c>
+      <c r="I11" s="8">
+        <f>E11*H11</f>
+        <v>0.34</v>
+      </c>
+      <c r="J11" t="s">
+        <v>12</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" s="8" t="s">
-        <v>90</v>
+        <v>98</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="M11" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="14.25" customHeight="1">
+    <row r="12" spans="1:13" ht="14.25" customHeight="1">
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>91</v>
+      <c r="B12" s="7" t="s">
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="7">
+        <v>31</v>
+      </c>
+      <c r="D12" s="6">
         <v>3213</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" t="s">
+        <v>12</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="L12" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="M12" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="I12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J12" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="L12" s="8" t="s">
-        <v>94</v>
-      </c>
     </row>
-    <row r="13" spans="1:12" ht="14.25" customHeight="1">
+    <row r="13" spans="1:13" ht="14.25" customHeight="1">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
         <v>34</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>35</v>
-      </c>
-      <c r="D13" t="s">
-        <v>36</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
-      <c r="F13" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="G13" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="H13" s="9"/>
-      <c r="I13" t="s">
-        <v>13</v>
-      </c>
-      <c r="J13" s="5" t="s">
-        <v>97</v>
+      <c r="F13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" t="s">
+        <v>12</v>
       </c>
       <c r="K13" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="L13" s="8" t="s">
-        <v>99</v>
+        <v>68</v>
+      </c>
+      <c r="L13" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M13" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="14.25" customHeight="1">
+    <row r="14" spans="1:13" ht="14.25" customHeight="1">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>38</v>
-      </c>
-      <c r="D14" t="s">
-        <v>39</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G14" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="I14" t="s">
-        <v>13</v>
-      </c>
-      <c r="J14" s="5" t="s">
-        <v>95</v>
+      <c r="F14" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" t="s">
+        <v>12</v>
       </c>
       <c r="K14" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="L14" s="8" t="s">
-        <v>99</v>
+        <v>66</v>
+      </c>
+      <c r="L14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="14.25" customHeight="1">
+    <row r="15" spans="1:13" ht="14.25" customHeight="1">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
         <v>40</v>
       </c>
-      <c r="C15" t="s">
+      <c r="D15" t="s">
         <v>41</v>
-      </c>
-      <c r="D15" t="s">
-        <v>42</v>
       </c>
       <c r="E15">
         <v>1</v>
       </c>
       <c r="F15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="I15" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" t="s">
-        <v>57</v>
+      <c r="H15" s="8">
+        <v>8</v>
+      </c>
+      <c r="I15" s="8">
+        <f>E15*H15</f>
+        <v>8</v>
+      </c>
+      <c r="J15" t="s">
+        <v>12</v>
+      </c>
+      <c r="M15" s="7" t="s">
+        <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="14.25" customHeight="1"/>
+    <row r="16" spans="1:13" ht="14.25" customHeight="1"/>
     <row r="17" ht="14.25" customHeight="1"/>
     <row r="18" ht="14.25" customHeight="1"/>
     <row r="19" ht="14.25" customHeight="1"/>
@@ -2221,32 +2288,32 @@
     <row r="999" ht="14.25" customHeight="1"/>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="K2" r:id="rId1"/>
-    <hyperlink ref="J2" r:id="rId2"/>
-    <hyperlink ref="K3" r:id="rId3"/>
-    <hyperlink ref="J3" r:id="rId4"/>
-    <hyperlink ref="J4" r:id="rId5"/>
-    <hyperlink ref="K4" r:id="rId6"/>
-    <hyperlink ref="J5" r:id="rId7"/>
-    <hyperlink ref="K5" r:id="rId8"/>
-    <hyperlink ref="J6" r:id="rId9"/>
-    <hyperlink ref="K6" r:id="rId10"/>
-    <hyperlink ref="J7" r:id="rId11"/>
-    <hyperlink ref="K7" r:id="rId12"/>
-    <hyperlink ref="J8" r:id="rId13"/>
-    <hyperlink ref="K8" r:id="rId14"/>
-    <hyperlink ref="J9" r:id="rId15"/>
-    <hyperlink ref="K9" r:id="rId16"/>
-    <hyperlink ref="J10" r:id="rId17"/>
-    <hyperlink ref="K10" r:id="rId18"/>
-    <hyperlink ref="J11" r:id="rId19"/>
-    <hyperlink ref="K11" r:id="rId20"/>
-    <hyperlink ref="J12" r:id="rId21"/>
-    <hyperlink ref="K12" r:id="rId22"/>
-    <hyperlink ref="J14" r:id="rId23"/>
-    <hyperlink ref="K14" r:id="rId24"/>
-    <hyperlink ref="J13" r:id="rId25"/>
-    <hyperlink ref="K13" r:id="rId26"/>
+    <hyperlink ref="L2" r:id="rId1"/>
+    <hyperlink ref="K2" r:id="rId2"/>
+    <hyperlink ref="L3" r:id="rId3"/>
+    <hyperlink ref="K3" r:id="rId4"/>
+    <hyperlink ref="K4" r:id="rId5"/>
+    <hyperlink ref="L4" r:id="rId6"/>
+    <hyperlink ref="K5" r:id="rId7"/>
+    <hyperlink ref="L5" r:id="rId8"/>
+    <hyperlink ref="K12" r:id="rId9"/>
+    <hyperlink ref="L12" r:id="rId10"/>
+    <hyperlink ref="K14" r:id="rId11"/>
+    <hyperlink ref="L14" r:id="rId12"/>
+    <hyperlink ref="K13" r:id="rId13"/>
+    <hyperlink ref="L13" r:id="rId14"/>
+    <hyperlink ref="K6" r:id="rId15"/>
+    <hyperlink ref="L6" r:id="rId16"/>
+    <hyperlink ref="K7" r:id="rId17"/>
+    <hyperlink ref="L7" r:id="rId18"/>
+    <hyperlink ref="K8" r:id="rId19"/>
+    <hyperlink ref="L8" r:id="rId20"/>
+    <hyperlink ref="K9" r:id="rId21"/>
+    <hyperlink ref="L9" r:id="rId22"/>
+    <hyperlink ref="K10" r:id="rId23"/>
+    <hyperlink ref="L10" r:id="rId24"/>
+    <hyperlink ref="K11" r:id="rId25"/>
+    <hyperlink ref="L11" r:id="rId26"/>
   </hyperlinks>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>

--- a/Hardware/Beacon/BEACON_BOM_FOSSASAT With Hyperlinks.xlsx
+++ b/Hardware/Beacon/BEACON_BOM_FOSSASAT With Hyperlinks.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtengines.com\users\Redirection\cmulhall\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\vtengines.com\users\redirection\cmulhall\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9375"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11250" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
@@ -162,9 +162,6 @@
     <t>Comments:</t>
   </si>
   <si>
-    <t>CM: ATmega328P-AN has better temp range</t>
-  </si>
-  <si>
     <t>https://www.mouser.co.uk/ProductDetail/Microchip-Technology-Atmel/ATMEGA328P-AU?qs=sGAEpiMZZMtVoztFdqDXO3RbBx7FKCmV</t>
   </si>
   <si>
@@ -334,6 +331,9 @@
   </si>
   <si>
     <t>CM: u.FL Antenna? Also, put a large ground pad under this device. Stitch it to the GND plane with LOTS of vias.</t>
+  </si>
+  <si>
+    <t>CM: ATmega328P-15AZ is an AEC Qualified part. Recommended upgrade.</t>
   </si>
 </sst>
 </file>
@@ -341,7 +341,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="&quot;£&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0.00"/>
   </numFmts>
   <fonts count="6">
     <font>
@@ -406,7 +406,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -695,7 +695,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L27" sqref="L27"/>
+      <selection pane="bottomLeft" activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -737,10 +737,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>7</v>
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>46</v>
@@ -783,13 +783,13 @@
         <v>12</v>
       </c>
       <c r="K2" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="M2" t="s">
-        <v>47</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="14.25" customHeight="1">
@@ -820,13 +820,13 @@
         <v>12</v>
       </c>
       <c r="K3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="M3" t="s">
         <v>51</v>
-      </c>
-      <c r="M3" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="14.25" customHeight="1">
@@ -849,7 +849,7 @@
         <v>21</v>
       </c>
       <c r="G4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H4" s="8"/>
       <c r="I4" s="8"/>
@@ -857,13 +857,13 @@
         <v>12</v>
       </c>
       <c r="K4" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="L4" s="5" t="s">
+      <c r="M4" t="s">
         <v>55</v>
-      </c>
-      <c r="M4" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" customHeight="1">
@@ -894,13 +894,13 @@
         <v>12</v>
       </c>
       <c r="K5" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="L5" s="5" t="s">
-        <v>58</v>
-      </c>
       <c r="M5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1">
@@ -908,41 +908,41 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C6" t="s">
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E6">
         <v>9</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H6" s="8">
         <v>0.21</v>
       </c>
       <c r="I6" s="8">
-        <f>E6*H6</f>
+        <f t="shared" ref="I6:I11" si="0">E6*H6</f>
         <v>1.89</v>
       </c>
       <c r="J6" t="s">
         <v>12</v>
       </c>
       <c r="K6" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L6" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="L6" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="M6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="14.25" customHeight="1">
@@ -950,41 +950,41 @@
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" t="s">
         <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="8">
         <v>0.36</v>
       </c>
       <c r="I7" s="8">
-        <f>E7*H7</f>
+        <f t="shared" si="0"/>
         <v>0.36</v>
       </c>
       <c r="J7" t="s">
         <v>12</v>
       </c>
       <c r="K7" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="L7" s="5" t="s">
+      <c r="M7" t="s">
         <v>83</v>
-      </c>
-      <c r="M7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="14.25" customHeight="1">
@@ -992,41 +992,41 @@
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C8" t="s">
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E8">
         <v>4</v>
       </c>
       <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
         <v>85</v>
-      </c>
-      <c r="G8" t="s">
-        <v>86</v>
       </c>
       <c r="H8" s="8">
         <v>0.13</v>
       </c>
       <c r="I8" s="8">
-        <f>E8*H8</f>
+        <f t="shared" si="0"/>
         <v>0.52</v>
       </c>
       <c r="J8" t="s">
         <v>12</v>
       </c>
       <c r="K8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>88</v>
-      </c>
       <c r="M8" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="14.25" customHeight="1">
@@ -1034,41 +1034,41 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" t="s">
         <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H9" s="8">
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="I9" s="8">
-        <f>E9*H9</f>
+        <f t="shared" si="0"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="J9" t="s">
         <v>12</v>
       </c>
       <c r="K9" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L9" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="L9" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="M9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1">
@@ -1076,41 +1076,41 @@
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C10" t="s">
         <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E10">
         <v>2</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H10" s="8">
         <v>0.14000000000000001</v>
       </c>
       <c r="I10" s="8">
-        <f>E10*H10</f>
+        <f t="shared" si="0"/>
         <v>0.28000000000000003</v>
       </c>
       <c r="J10" t="s">
         <v>12</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1">
@@ -1118,41 +1118,41 @@
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" t="s">
         <v>30</v>
       </c>
       <c r="D11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E11">
         <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H11" s="8">
         <v>0.17</v>
       </c>
       <c r="I11" s="8">
-        <f>E11*H11</f>
+        <f t="shared" si="0"/>
         <v>0.34</v>
       </c>
       <c r="J11" t="s">
         <v>12</v>
       </c>
       <c r="K11" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="L11" s="5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="14.25" customHeight="1">
@@ -1160,7 +1160,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C12" t="s">
         <v>31</v>
@@ -1175,7 +1175,7 @@
         <v>32</v>
       </c>
       <c r="G12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
@@ -1183,13 +1183,13 @@
         <v>12</v>
       </c>
       <c r="K12" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="L12" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="L12" s="5" t="s">
+      <c r="M12" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="14.25" customHeight="1">
@@ -1209,10 +1209,10 @@
         <v>3</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H13" s="8"/>
       <c r="I13" s="8"/>
@@ -1220,13 +1220,13 @@
         <v>12</v>
       </c>
       <c r="K13" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="L13" s="5" t="s">
+      <c r="M13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="M13" s="7" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="14.25" customHeight="1">
@@ -1246,10 +1246,10 @@
         <v>1</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="8"/>
@@ -1257,13 +1257,13 @@
         <v>12</v>
       </c>
       <c r="K14" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="L14" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="L14" s="5" t="s">
-        <v>67</v>
-      </c>
       <c r="M14" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="14.25" customHeight="1">
@@ -1299,7 +1299,7 @@
         <v>12</v>
       </c>
       <c r="M15" s="7" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="14.25" customHeight="1"/>
